--- a/input/bill-details.xlsx
+++ b/input/bill-details.xlsx
@@ -16,29 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>CUSTOMER_NAME</t>
   </si>
   <si>
-    <t>INSTALLMENT</t>
-  </si>
-  <si>
-    <t>RENTAL</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL</t>
-  </si>
-  <si>
     <t>VOICE_ROAM</t>
   </si>
   <si>
     <t>DATA_ROAM</t>
   </si>
   <si>
-    <t>VAS</t>
-  </si>
-  <si>
     <t>VOICE_INTL</t>
   </si>
   <si>
@@ -54,12 +42,6 @@
     <t>SMS_ROAM</t>
   </si>
   <si>
-    <t>ONETIME_FEES</t>
-  </si>
-  <si>
-    <t>PAYMENTS_REFUNDS</t>
-  </si>
-  <si>
     <t>TOT_AMOUNT</t>
   </si>
   <si>
@@ -82,17 +64,37 @@
   </si>
   <si>
     <t>Fluor</t>
+  </si>
+  <si>
+    <t>Shibu PS</t>
+  </si>
+  <si>
+    <t>Jerry Flores</t>
+  </si>
+  <si>
+    <t>Jibu John</t>
+  </si>
+  <si>
+    <t>Rebecca George</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>FDH.ZOR.SITE.IT@Fluor.com</t>
+  </si>
+  <si>
+    <t>SAP Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,37 +230,20 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,12 +421,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -452,7 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,29 +610,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -999,67 +967,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
@@ -1068,80 +1033,237 @@
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11100211</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SUM(D2:J2)</f>
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="C3" s="1">
+        <v>11100222</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <f>SUM(D3:J3)</f>
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="1">
+        <v>11100233</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f>SUM(D4:J4)</f>
+        <v>35</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="C5" s="1">
+        <v>11100244</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="7">
+      <c r="K5" s="1">
+        <f>SUM(D5:J5)</f>
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11100255</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7">
-        <v>6</v>
-      </c>
-      <c r="K2" s="7">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7">
-        <v>4</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
-        <f>SUM(C2:O2)</f>
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="K6" s="1">
+        <f>SUM(D6:J6)</f>
+        <v>35</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
